--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107980.290957097</v>
+        <v>1098609.745274286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759984.410099418</v>
+        <v>1134222.401358592</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10513324.36052305</v>
+        <v>10769757.33220669</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61.41699360806279</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.34809064563621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363107971</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8718846072899</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.9066036119075</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>2.834206670629865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1025,7 +1025,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>58.94788863247402</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>98.46483191978992</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>207.1005556735026</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>17.69711708050606</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041388</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>18.85845355785919</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>143.6484612441733</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>168.1158122680984</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.4274484045737</v>
+        <v>65.31126771337313</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.4432112343168</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>14.91360950256431</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>247.5787412666982</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.637517054025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>129.4921374101652</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>170.4694561009721</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>132.9110887505218</v>
+        <v>170.4694561009728</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>150.7262102561865</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>185.9716038103484</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>238.4078010854689</v>
       </c>
       <c r="X34" t="n">
-        <v>161.3475721491334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>154.7926153172082</v>
+        <v>125.4967848101414</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.6193903906435</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>211.2010292563934</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>115.7357376596196</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>211.2010292563934</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>240.6441113846284</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>14.19369798355392</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>954.607838657666</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>543.6219338680585</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>128.5494837130549</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4400,19 +4400,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>507.4345062145375</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>357.3178668022017</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>357.3178668022017</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4515,25 +4515,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.4345062145375</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.77673900139</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261502</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
         <v>767.0908251999817</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879453</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600384</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477026</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653095</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>272.2726250653095</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>272.2726250653095</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>126.0554382831673</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4755,22 +4755,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1887.813801820606</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C8" t="n">
-        <v>1887.813801820606</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="D8" t="n">
-        <v>1529.548103213855</v>
+        <v>1306.412744518801</v>
       </c>
       <c r="E8" t="n">
-        <v>1143.759850615611</v>
+        <v>920.6244919205569</v>
       </c>
       <c r="F8" t="n">
-        <v>732.7739458260037</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>317.7014956710001</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820606</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>903.01112997929</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>681.244514548816</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>681.244514548816</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>681.244514548816</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>391.8273445118554</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038045</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097633</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490883</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926384</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030308</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609172</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339058</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077978</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102167</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>775.7875500159902</v>
+        <v>407.6686471160119</v>
       </c>
       <c r="C13" t="n">
-        <v>775.7875500159902</v>
+        <v>407.6686471160119</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6709106036544</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962293</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372934</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588486</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886962</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>775.7875500159902</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T13" t="n">
-        <v>775.7875500159902</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U13" t="n">
-        <v>775.7875500159902</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="V13" t="n">
-        <v>775.7875500159902</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="W13" t="n">
-        <v>775.7875500159902</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="X13" t="n">
-        <v>775.7875500159902</v>
+        <v>810.1096910897818</v>
       </c>
       <c r="Y13" t="n">
-        <v>775.7875500159902</v>
+        <v>589.3171119462517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308159</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367747</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760997</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.384423162752</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>651.398518373145</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>236.3260682181414</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609172</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348093</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372281</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181855</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="C16" t="n">
-        <v>751.9508228902786</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="D16" t="n">
-        <v>601.8341834779428</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9210898955497</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="F16" t="n">
-        <v>453.9210898955497</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962293</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372934</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588486</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886962</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181855</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181855</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181855</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181855</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181855</v>
+        <v>159.7876405362276</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>425.7301915810641</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>256.7940086531572</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>1257.700706964857</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>1257.700706964857</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.700706964857</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X19" t="n">
-        <v>1257.700706964857</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="Y19" t="n">
-        <v>1257.700706964857</v>
+        <v>607.3786564113038</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,16 +5767,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N22" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q22" t="n">
         <v>1440.555541309953</v>
@@ -5943,19 +5943,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.476004676925</v>
       </c>
       <c r="V22" t="n">
-        <v>1440.555541309953</v>
+        <v>935.791516471038</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.555541309953</v>
+        <v>646.3743464340774</v>
       </c>
       <c r="X22" t="n">
-        <v>1440.555541309953</v>
+        <v>646.3743464340774</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>425.5817672905473</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C25" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N25" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q25" t="n">
         <v>1440.555541309953</v>
@@ -6174,25 +6174,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1257.700706964857</v>
+        <v>1309.755402511807</v>
       </c>
       <c r="T25" t="n">
-        <v>1038.099241987798</v>
+        <v>1309.755402511807</v>
       </c>
       <c r="U25" t="n">
-        <v>865.9078721888367</v>
+        <v>1020.680175856005</v>
       </c>
       <c r="V25" t="n">
-        <v>611.2233839829498</v>
+        <v>1020.680175856005</v>
       </c>
       <c r="W25" t="n">
-        <v>321.8062139459892</v>
+        <v>731.2630058190439</v>
       </c>
       <c r="X25" t="n">
-        <v>93.81666304797187</v>
+        <v>731.2630058190439</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.81666304797187</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K28" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N28" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q28" t="n">
         <v>1440.555541309953</v>
@@ -6411,25 +6411,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T28" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U28" t="n">
-        <v>1086.700451332367</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V28" t="n">
-        <v>832.0159631264798</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W28" t="n">
-        <v>542.5987930895193</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X28" t="n">
-        <v>314.6092421915019</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6472,40 +6472,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="C31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>140.7528025687997</v>
@@ -6648,25 +6648,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>1288.306844081482</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.705379104423</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U31" t="n">
-        <v>779.6301524486213</v>
+        <v>1033.103971473957</v>
       </c>
       <c r="V31" t="n">
-        <v>524.9456642427344</v>
+        <v>778.4194832680698</v>
       </c>
       <c r="W31" t="n">
-        <v>235.5284942057738</v>
+        <v>489.0023132311093</v>
       </c>
       <c r="X31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>262.7528459758788</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="C34" t="n">
         <v>93.81666304797191</v>
@@ -6885,25 +6885,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T34" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.480314654151</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="V34" t="n">
-        <v>896.7958264482644</v>
+        <v>783.4147537819123</v>
       </c>
       <c r="W34" t="n">
-        <v>607.3786564113038</v>
+        <v>542.5987930895194</v>
       </c>
       <c r="X34" t="n">
-        <v>444.4013108061185</v>
+        <v>314.609242191502</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.4013108061185</v>
+        <v>93.81666304797191</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N37" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q37" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1190.65500321726</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U37" t="n">
-        <v>1190.65500321726</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V37" t="n">
-        <v>935.9705150113729</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W37" t="n">
-        <v>935.9705150113729</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="C40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="D40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N40" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q40" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>971.0535382402009</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U40" t="n">
-        <v>681.9783115843986</v>
+        <v>1007.619703346639</v>
       </c>
       <c r="V40" t="n">
-        <v>427.2938233785118</v>
+        <v>752.9352151407518</v>
       </c>
       <c r="W40" t="n">
-        <v>137.8766533415512</v>
+        <v>463.5180451037911</v>
       </c>
       <c r="X40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.8766533415512</v>
+        <v>235.5284942057738</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7429,10 +7429,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>991.7734112684053</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="C43" t="n">
-        <v>822.8372283404984</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="D43" t="n">
-        <v>672.7205889281627</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>524.8074953457696</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>377.9175478478592</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>210.7214485627391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N43" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q43" t="n">
         <v>1440.555541309953</v>
@@ -7599,22 +7599,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.555541309953</v>
+        <v>1007.619703346639</v>
       </c>
       <c r="V43" t="n">
-        <v>1440.555541309953</v>
+        <v>752.9352151407518</v>
       </c>
       <c r="W43" t="n">
-        <v>1440.555541309953</v>
+        <v>463.5180451037911</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.565990411935</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7734112684053</v>
+        <v>235.5284942057738</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N46" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q46" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>971.0535382402009</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U46" t="n">
-        <v>727.9786782557277</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V46" t="n">
-        <v>727.9786782557277</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W46" t="n">
-        <v>727.9786782557277</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X46" t="n">
-        <v>727.9786782557277</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.9786782557277</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493146</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.7570194603532</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>46.12056408726858</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.4919521192221</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>23.59835985445451</v>
+        <v>100.2128705788957</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.38876894762049</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>133.7018635156481</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24183,19 +24183,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>38.60573312254593</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.94713629806978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>51.53414859147938</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>115.715018288272</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.2733856387223</v>
+        <v>115.7150182882713</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>30.30007574545812</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>100.2128705788957</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,25 +25125,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>48.11519725112205</v>
       </c>
       <c r="X34" t="n">
-        <v>64.36208323990371</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>70.91704007182895</v>
+        <v>100.2128705788957</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>121.9047479016253</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>74.98344513285073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>24.55897518660431</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>74.98344513285073</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>45.54036300461573</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>272.3293003530371</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773246.2968165618</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773246.296816562</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920300.3688706554</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>378397.123974062</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="F2" t="n">
-        <v>378397.1239740622</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="G2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="I2" t="n">
+        <v>450359.7549792568</v>
+      </c>
+      <c r="J2" t="n">
+        <v>450359.7549792568</v>
+      </c>
+      <c r="K2" t="n">
         <v>450359.7549792567</v>
       </c>
-      <c r="J2" t="n">
-        <v>450359.7549792567</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>450359.7549792568</v>
       </c>
-      <c r="L2" t="n">
-        <v>450359.7549792567</v>
-      </c>
       <c r="M2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792566</v>
       </c>
       <c r="N2" t="n">
         <v>450359.7549792568</v>
       </c>
       <c r="O2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="P2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792569</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598194</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545115</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835453</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="K4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="O4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835453</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>270568.3330065173</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065171</v>
       </c>
       <c r="E6" t="n">
-        <v>303506.1364236623</v>
+        <v>22118.1898048449</v>
       </c>
       <c r="F6" t="n">
-        <v>303506.1364236628</v>
+        <v>347530.6516122008</v>
       </c>
       <c r="G6" t="n">
-        <v>38632.80348684656</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="H6" t="n">
-        <v>348475.8369466659</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="I6" t="n">
-        <v>348475.8369466661</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="J6" t="n">
-        <v>130944.6345493885</v>
+        <v>129999.4492149231</v>
       </c>
       <c r="K6" t="n">
-        <v>348475.8369466659</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="L6" t="n">
-        <v>348475.8369466659</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="M6" t="n">
-        <v>348475.8369466662</v>
+        <v>262475.6236766886</v>
       </c>
       <c r="N6" t="n">
-        <v>348475.8369466661</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="O6" t="n">
-        <v>266340.0063512148</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="P6" t="n">
-        <v>348475.836946666</v>
+        <v>347530.6516122008</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,34 +26795,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.198799748375</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>233.1907707792577</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.8898480104174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754813</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.54916341564139</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27587,10 +27587,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.8272380515731</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>366.8968940078392</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>37.40453177736407</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>137.7769457025057</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>308.4112138219215</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>87.50720871381787</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>172.0719082509358</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31606,10 +31606,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987476</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035315</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125369</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O42" t="n">
-        <v>502.2268148619681</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127261</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.670908060956</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410457</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905186</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L25" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M25" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O25" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M28" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O28" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L37" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M37" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O37" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L40" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M40" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O40" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O42" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L43" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M43" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O43" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L46" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M46" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O46" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1098609.745274286</v>
+        <v>1104794.366897286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358592</v>
+        <v>1759984.410099419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10769757.33220669</v>
+        <v>10513324.36052305</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>61.41699360806279</v>
+        <v>50.67650313406757</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>40.87152028304765</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.834206670629865</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>50.73003670622291</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>98.46483191978992</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>282.3939120001628</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>98.55505812707976</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>18.85845355785919</v>
+        <v>15.3154881622214</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>223.6073936510858</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.31126771337313</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>54.51165059784287</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.91360950256431</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>197.4811871144985</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>96.69500824537081</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>247.5787412666982</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>145.599875079479</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.4921374101652</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>170.4694561009728</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>158.6218606739412</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>185.9716038103484</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>74.999907835161</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>44.0771948673512</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>238.4078010854689</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>65.31126771337246</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>125.4967848101414</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>83.82684322845101</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>211.2010292563934</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.2010292563934</v>
+        <v>170.4845588958727</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>14.19369798355392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1312.873537264416</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>954.607838657666</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="E2" t="n">
-        <v>954.607838657666</v>
+        <v>943.7588583809031</v>
       </c>
       <c r="F2" t="n">
-        <v>543.6219338680585</v>
+        <v>532.7729535912956</v>
       </c>
       <c r="G2" t="n">
-        <v>128.5494837130549</v>
+        <v>117.7005034362921</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4497,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
         <v>767.0908251999817</v>
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>155.3330353074677</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>155.3330353074677</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C8" t="n">
-        <v>1664.678443125552</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.412744518801</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="E8" t="n">
-        <v>920.6244919205569</v>
+        <v>1219.813745895066</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>808.8278411054584</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>393.7553909504549</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4950,64 +4950,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407.6686471160119</v>
+        <v>376.7853475753367</v>
       </c>
       <c r="C13" t="n">
-        <v>407.6686471160119</v>
+        <v>376.7853475753367</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>1038.099241987799</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.099241987799</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V13" t="n">
-        <v>1038.099241987799</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="W13" t="n">
-        <v>1038.099241987799</v>
+        <v>376.7853475753367</v>
       </c>
       <c r="X13" t="n">
-        <v>810.1096910897818</v>
+        <v>376.7853475753367</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.3171119462517</v>
+        <v>376.7853475753367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.7876405362276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7876405362276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>159.7876405362276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>159.7876405362276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>159.7876405362276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477608</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>1220.954076332895</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>931.8788496770924</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V16" t="n">
-        <v>677.1943614712055</v>
+        <v>576.721865612674</v>
       </c>
       <c r="W16" t="n">
-        <v>387.7771914342449</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X16" t="n">
-        <v>159.7876405362276</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y16" t="n">
-        <v>159.7876405362276</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.7301915810641</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="C19" t="n">
-        <v>256.7940086531572</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5703,22 +5703,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1241.079594729652</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.480314654151</v>
+        <v>952.0043680738498</v>
       </c>
       <c r="V19" t="n">
-        <v>896.7958264482644</v>
+        <v>697.319879867963</v>
       </c>
       <c r="W19" t="n">
-        <v>607.3786564113038</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3786564113038</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.3786564113038</v>
+        <v>407.9027098310023</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>243.9333024603076</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="C22" t="n">
-        <v>243.9333024603076</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="D22" t="n">
-        <v>93.81666304797189</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>358.6844878334665</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>191.4883885483464</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="U22" t="n">
-        <v>1190.476004676925</v>
+        <v>1084.434610906554</v>
       </c>
       <c r="V22" t="n">
-        <v>935.791516471038</v>
+        <v>829.7501227006668</v>
       </c>
       <c r="W22" t="n">
-        <v>646.3743464340774</v>
+        <v>540.3329526637062</v>
       </c>
       <c r="X22" t="n">
-        <v>646.3743464340774</v>
+        <v>540.3329526637062</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.5817672905473</v>
+        <v>540.3329526637062</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,7 +6007,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.6145409888042</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888042</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.8872439363346</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6174,25 +6174,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.755402511807</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>1309.755402511807</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U25" t="n">
-        <v>1020.680175856005</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.680175856005</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W25" t="n">
-        <v>731.2630058190439</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X25" t="n">
-        <v>731.2630058190439</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.2630058190439</v>
+        <v>387.7771914342449</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.81666304797189</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>93.81666304797189</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6411,25 +6411,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>1257.700706964858</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>1038.099241987799</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U28" t="n">
-        <v>865.9078721888367</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V28" t="n">
-        <v>611.2233839829498</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W28" t="n">
-        <v>321.8062139459892</v>
+        <v>896.4538830671058</v>
       </c>
       <c r="X28" t="n">
-        <v>93.81666304797189</v>
+        <v>736.2297813762561</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.81666304797189</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6490,13 +6490,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>261.0127623330919</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>261.0127623330919</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797189</v>
@@ -6651,22 +6651,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U31" t="n">
-        <v>1033.103971473957</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V31" t="n">
-        <v>778.4194832680698</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W31" t="n">
-        <v>489.0023132311093</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="X31" t="n">
-        <v>261.0127623330919</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>261.0127623330919</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.81666304797191</v>
+        <v>452.4251288889328</v>
       </c>
       <c r="C34" t="n">
-        <v>93.81666304797191</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>93.81666304797191</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797191</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
         <v>1440.555541309953</v>
@@ -6885,25 +6885,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>1257.700706964858</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>1038.099241987799</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U34" t="n">
-        <v>1038.099241987799</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V34" t="n">
-        <v>783.4147537819123</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W34" t="n">
-        <v>542.5987930895194</v>
+        <v>862.0631446171899</v>
       </c>
       <c r="X34" t="n">
-        <v>314.609242191502</v>
+        <v>634.0735937191725</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.81666304797191</v>
+        <v>634.0735937191725</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>261.0127623330919</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="C37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
         <v>1440.555541309953</v>
@@ -7125,22 +7125,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1220.954076332895</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>931.8788496770924</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V37" t="n">
-        <v>677.1943614712055</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W37" t="n">
-        <v>387.7771914342449</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X37" t="n">
-        <v>261.0127623330919</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="Y37" t="n">
-        <v>261.0127623330919</v>
+        <v>159.7876405362269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.5284942057738</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>1288.836258543718</v>
       </c>
       <c r="T40" t="n">
-        <v>1220.954076332895</v>
+        <v>1069.234793566659</v>
       </c>
       <c r="U40" t="n">
-        <v>1007.619703346639</v>
+        <v>780.1595669108567</v>
       </c>
       <c r="V40" t="n">
-        <v>752.9352151407518</v>
+        <v>780.1595669108567</v>
       </c>
       <c r="W40" t="n">
-        <v>463.5180451037911</v>
+        <v>490.7423968738961</v>
       </c>
       <c r="X40" t="n">
-        <v>235.5284942057738</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5284942057738</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
         <v>1440.555541309953</v>
@@ -7599,22 +7599,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U43" t="n">
-        <v>1007.619703346639</v>
+        <v>1268.348916162607</v>
       </c>
       <c r="V43" t="n">
-        <v>752.9352151407518</v>
+        <v>1013.66442795672</v>
       </c>
       <c r="W43" t="n">
-        <v>463.5180451037911</v>
+        <v>724.247257919759</v>
       </c>
       <c r="X43" t="n">
-        <v>235.5284942057738</v>
+        <v>496.2577070217417</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.5284942057738</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,25 +7806,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
         <v>1440.555541309953</v>
@@ -7833,25 +7833,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1440.555541309953</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T46" t="n">
-        <v>1440.555541309953</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U46" t="n">
-        <v>1440.555541309953</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V46" t="n">
-        <v>1440.555541309953</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -23263,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>283.375311945182</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>129.7570194603532</v>
+        <v>133.299984855991</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>162.6305450049678</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>100.2128705788957</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>197.6259927259851</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>133.7018635156481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>19.92426321278975</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>43.59970460085304</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24183,7 +24183,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>38.60573312254593</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>19.92426321278981</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>51.53414859147938</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>115.7150182882713</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>67.08779471509595</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>100.2128705788957</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>150.7097475538762</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1696262312766</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>48.11519725112205</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9355533852554</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>100.2128705788957</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>97.19944277319358</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>74.98344513285073</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>74.98344513285073</v>
+        <v>115.6999154933715</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.3293003530371</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920300.3688706552</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920300.3688706552</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>450359.7549792567</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="F2" t="n">
-        <v>450359.7549792567</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="G2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
+        <v>450359.7549792566</v>
+      </c>
+      <c r="I2" t="n">
         <v>450359.7549792567</v>
       </c>
-      <c r="I2" t="n">
-        <v>450359.7549792568</v>
-      </c>
       <c r="J2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="K2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="L2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="M2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="N2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="O2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792565</v>
       </c>
       <c r="P2" t="n">
-        <v>450359.7549792569</v>
+        <v>450359.7549792567</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545144</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
+        <v>584.6469890061228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="G4" t="n">
         <v>761.3882086835455</v>
       </c>
-      <c r="F4" t="n">
-        <v>761.3882086835454</v>
-      </c>
-      <c r="G4" t="n">
-        <v>761.3882086835454</v>
-      </c>
       <c r="H4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="D6" t="n">
         <v>270568.3330065171</v>
       </c>
       <c r="E6" t="n">
-        <v>22118.1898048449</v>
+        <v>303098.7368858457</v>
       </c>
       <c r="F6" t="n">
-        <v>347530.6516122008</v>
+        <v>303098.7368858452</v>
       </c>
       <c r="G6" t="n">
-        <v>347530.6516122006</v>
+        <v>38538.28495339904</v>
       </c>
       <c r="H6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132194</v>
       </c>
       <c r="I6" t="n">
-        <v>347530.6516122007</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="J6" t="n">
-        <v>129999.4492149231</v>
+        <v>130850.116015942</v>
       </c>
       <c r="K6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="L6" t="n">
-        <v>347530.6516122007</v>
+        <v>348381.3184132198</v>
       </c>
       <c r="M6" t="n">
-        <v>262475.6236766886</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="N6" t="n">
-        <v>347530.6516122007</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="O6" t="n">
-        <v>347530.6516122007</v>
+        <v>266245.4878177679</v>
       </c>
       <c r="P6" t="n">
-        <v>347530.6516122008</v>
+        <v>348381.3184132195</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>233.1907707792577</v>
+        <v>243.9312612532529</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754813</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>366.8968940078392</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>335.5079019498307</v>
       </c>
     </row>
     <row r="6">
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>137.7769457025057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>308.4112138219215</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.21385238715766</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,10 +31600,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31612,28 +31612,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,34 +32551,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,37 +32785,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>536.8001439125369</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35260,19 +35260,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023008</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214692</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649825</v>
@@ -36050,19 +36050,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K22" t="n">
         <v>157.5888220649825</v>
@@ -36287,19 +36287,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N22" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P22" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>394.6661099905186</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K25" t="n">
         <v>157.5888220649825</v>
@@ -36524,19 +36524,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N25" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O25" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P25" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K28" t="n">
         <v>157.5888220649825</v>
@@ -36761,19 +36761,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N28" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O28" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P28" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K31" t="n">
         <v>157.5888220649825</v>
@@ -36998,19 +36998,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N31" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O31" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P31" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
